--- a/biology/Zoologie/Chionactis_palarostris/Chionactis_palarostris.xlsx
+++ b/biology/Zoologie/Chionactis_palarostris/Chionactis_palarostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chionactis palarostris  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chionactis palarostris  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Arizona aux États-Unis, et dans le Sonora au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Arizona aux États-Unis, et dans le Sonora au Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa description, Klauber indique que Chionactis palarostris diffère de Chionactis occipitalis notamment par le nombre d'anneaux noirs figurant sur le corps de l'animal, de 18 à 40 pour Chionactis occipitalis (en moyenne 26) mais seulement 10 chez Chionactis palarostris. Par ailleurs sa coloration est jugée plus brillante. La longueur du spécimen en sa possession était de 312 mm dont 57 mm pour la queue.
 Chionactis palarostris présente un motif composé d'anneaux noirs et rouges, ou de taches, séparés par d'étroites bandes de couleur jaune. Dix anneaux noirs sont présents sur le corps et trois sur la queue dont le dernier s'étend sur l'extrémité de celle-ci. Son ventre est de couleur crème.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (17 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (17 août 2011) :
 Chionactis palarostris organica Klauber, 1951
 Chionactis palarostris palarostris (Klauber, 1937)</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce Chionactis palarostris organica doit son nom au lieu de sa découverte, l'Organ Pipe Cactus National Monument.
 </t>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Klauber, 1937 : A new snake of the genus Sonora from Mexico. Transactions of the San Diego Society of Natural History, vol. 8, no 27, p. 363-366 (texte intégral).
 Klauber, 1951 : The shovel-nosed snake, Chionactis with descriptions of two new subspecies. Transactions of the San Diego Society of Natural History, vol. 11, no 9, p. 141-204 (texte intégral).</t>
